--- a/munia.xlsx
+++ b/munia.xlsx
@@ -18,42 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>zzattack@gmail.com</author>
-  </authors>
-  <commentList>
-    <comment ref="C9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>zzattack@gmail.com:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="158">
   <si>
     <t>Component</t>
   </si>
@@ -148,9 +114,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>lcd</t>
   </si>
   <si>
@@ -334,9 +297,6 @@
     <t>3v1</t>
   </si>
   <si>
-    <t>extension cable wii</t>
-  </si>
-  <si>
     <t>3.3v regulator tc1262</t>
   </si>
   <si>
@@ -361,24 +321,12 @@
     <t>internal headers/cabling</t>
   </si>
   <si>
-    <t>without connectors (reusing male end of extension cables)</t>
-  </si>
-  <si>
-    <t>pricings @ 50 units</t>
-  </si>
-  <si>
-    <t>wii connector</t>
-  </si>
-  <si>
     <t>fsa2257 switch</t>
   </si>
   <si>
     <t>Inventory</t>
   </si>
   <si>
-    <t>10+</t>
-  </si>
-  <si>
     <t>SNES and NGC pinout on RJ45</t>
   </si>
   <si>
@@ -436,18 +384,9 @@
     <t>White/orange</t>
   </si>
   <si>
-    <t>NGC cable</t>
-  </si>
-  <si>
-    <t>SNES cable</t>
-  </si>
-  <si>
     <t>White</t>
   </si>
   <si>
-    <t>Yellow, Black, Brown</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
@@ -506,16 +445,66 @@
   </si>
   <si>
     <t>breakout</t>
+  </si>
+  <si>
+    <t>cable rj11</t>
+  </si>
+  <si>
+    <t>cable rj45</t>
+  </si>
+  <si>
+    <t>power diodes</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>USB only version</t>
+  </si>
+  <si>
+    <t>Green or White</t>
+  </si>
+  <si>
+    <t>NGC cable 1</t>
+  </si>
+  <si>
+    <t>NGC cable 2</t>
+  </si>
+  <si>
+    <t>Yellow or green</t>
+  </si>
+  <si>
+    <t>SNES cable 1</t>
+  </si>
+  <si>
+    <t>SNES cable 2</t>
+  </si>
+  <si>
+    <t>Yellow, Black</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>yellow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$€-413]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,19 +535,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -573,6 +549,13 @@
     </font>
     <font>
       <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -709,30 +692,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -771,12 +730,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -795,27 +777,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,10 +801,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -840,8 +816,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -859,16 +847,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>87084</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>157842</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>236481</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>170793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>5441</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>14967</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>410035</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>34674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -892,8 +880,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4359727" y="5720442"/>
-          <a:ext cx="3575957" cy="1000125"/>
+          <a:off x="5590188" y="9327931"/>
+          <a:ext cx="2242778" cy="625881"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -920,8 +908,8 @@
       <xdr:rowOff>65314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>120157</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>126726</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>34367</xdr:rowOff>
     </xdr:to>
@@ -953,19 +941,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>302172</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>118242</xdr:rowOff>
+      <xdr:colOff>400099</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>407276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>37442</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>168495</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132694</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>174735</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -985,8 +973,63 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3678620" y="7291552"/>
-          <a:ext cx="1206719" cy="1002753"/>
+          <a:off x="3914496" y="7120759"/>
+          <a:ext cx="2872560" cy="1370286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>321880</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449630</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>69961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5675587" y="9945414"/>
+          <a:ext cx="2196974" cy="615185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1346,7 +1389,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1361,12 +1404,12 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1381,7 +1424,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1401,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,7 +1464,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1456,11 +1499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T4" sqref="T4:T5"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,9 +1511,12 @@
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="6"/>
     <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1480,345 +1526,407 @@
       <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="40">
+        <v>1.7</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="40">
+        <v>1.7</v>
+      </c>
+      <c r="D4" s="40">
+        <v>1.7</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="40">
+        <v>1.7</v>
+      </c>
+      <c r="D5" s="40">
+        <v>1.7</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="40">
+        <v>1.7</v>
+      </c>
+      <c r="D6" s="40">
+        <v>1.7</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="D3" s="6">
-        <f t="shared" ref="D3:D22" si="0">B3*C3</f>
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1.99</v>
-      </c>
-      <c r="D4" s="6">
-        <f t="shared" si="0"/>
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1.99</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C7" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="F8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1.99</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>95</v>
-      </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="40">
         <v>0.2</v>
       </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
+      <c r="D9" s="40">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="40">
+        <v>4</v>
+      </c>
+      <c r="D10" s="40">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="40">
+        <v>1</v>
+      </c>
+      <c r="D11" s="40">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="D11" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="F12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>100</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>105</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="40">
         <v>0.8</v>
       </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
+      <c r="D13" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="40">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D14" s="40">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="40">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D15" s="40">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="40">
+        <v>1</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="F16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="40">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="F17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="40">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D18" s="40"/>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="40">
+        <v>1.65</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="40">
+        <v>2.1</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>99</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="D15" s="6">
-        <f t="shared" si="0"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2.69</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" si="0"/>
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" s="40">
+        <v>1.6</v>
+      </c>
+      <c r="D21" s="40">
+        <v>1.6</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="40">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="40">
+        <v>0.44</v>
+      </c>
+      <c r="F22">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="40">
+        <v>3</v>
+      </c>
+      <c r="D23" s="40">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2.85</v>
-      </c>
-      <c r="D18" s="6">
-        <f t="shared" si="0"/>
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="D19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D20" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6">
-        <v>3</v>
-      </c>
-      <c r="D22" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="6">
-        <f>SUM(D3:D20)</f>
-        <v>28.76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="6">
-        <f>-SUM(D4:D7)</f>
-        <v>-5.97</v>
-      </c>
-      <c r="D25" s="6">
-        <f>D24-SUM(D4:D7)</f>
-        <v>22.790000000000003</v>
-      </c>
+      <c r="C25" s="41">
+        <f>SUM(C3:C23)</f>
+        <v>29.700000000000006</v>
+      </c>
+      <c r="D25" s="41">
+        <f>SUM(D3:D23)</f>
+        <v>19.750000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1834,13 +1942,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1851,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="4"/>
       <c r="H2" s="4"/>
@@ -1864,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1875,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1886,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1897,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1908,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1919,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1930,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1941,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1952,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1963,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1974,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1985,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1996,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2007,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2018,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2029,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2040,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -2063,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2074,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2085,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
         <v>64</v>
-      </c>
-      <c r="F23" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2099,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2110,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2121,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2132,10 +2240,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2146,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2160,10 +2268,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2174,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2188,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2202,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2216,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2230,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2244,10 +2352,10 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2258,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2272,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2286,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2300,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2314,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2328,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2342,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2356,10 +2464,10 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2370,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2384,10 +2492,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2398,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2412,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2426,10 +2534,10 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2440,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2454,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2468,10 +2576,10 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2482,10 +2590,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2496,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2510,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2524,10 +2632,10 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2538,10 +2646,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2552,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2566,10 +2674,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2580,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2594,10 +2702,10 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2608,10 +2716,10 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2622,10 +2730,10 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2636,10 +2744,10 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2650,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2664,10 +2772,10 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2678,10 +2786,10 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2692,10 +2800,10 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2706,10 +2814,10 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2720,10 +2828,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2734,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2748,10 +2856,10 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2762,10 +2870,10 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2776,10 +2884,10 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2790,10 +2898,10 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2804,10 +2912,10 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
         <v>44</v>
-      </c>
-      <c r="F76" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2818,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
         <v>44</v>
-      </c>
-      <c r="F77" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2832,10 +2940,10 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
         <v>44</v>
-      </c>
-      <c r="F78" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2846,10 +2954,10 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
         <v>44</v>
-      </c>
-      <c r="F79" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2860,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
         <v>44</v>
-      </c>
-      <c r="F80" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2874,10 +2982,10 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
         <v>44</v>
-      </c>
-      <c r="F81" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2888,10 +2996,10 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
         <v>44</v>
-      </c>
-      <c r="F82" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2902,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
         <v>44</v>
-      </c>
-      <c r="F83" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2916,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2930,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2944,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2958,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2972,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2986,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3000,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3014,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3028,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3066,33 +3174,33 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -3102,191 +3210,191 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
         <v>81</v>
       </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
-      </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
         <v>75</v>
       </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
       <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
         <v>81</v>
       </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
         <v>81</v>
       </c>
-      <c r="D9" t="s">
-        <v>82</v>
-      </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
         <v>76</v>
       </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3309,541 +3417,626 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="C6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>4</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>8</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="37">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="43"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="37">
+        <v>2</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>3</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="37">
+        <v>4</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="44"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="22" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="E23" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>1</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="31">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>2</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="31">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>3</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="31">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>4</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="31">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>5</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
-        <v>4</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
+      <c r="E28" s="31">
+        <v>6</v>
+      </c>
+      <c r="I28">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="9" t="s">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <v>6</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="E29" s="31">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>6</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="J29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="E30" s="20"/>
+      <c r="I30">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
-        <v>8</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
-        <v>1</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
-        <v>2</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
-        <v>3</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
-        <v>4</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="37">
-        <v>1</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="9" t="s">
+    </row>
+    <row r="32" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="37">
-        <v>2</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="37">
-        <v>3</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
-        <v>4</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="37">
-        <v>5</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="37">
-        <v>6</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="E30" s="21"/>
-    </row>
-    <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
-        <v>148</v>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>139</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="31">
+        <v>1</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="31">
+        <v>2</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="31">
+        <v>3</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="31">
+        <v>1</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="31">
+        <v>2</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="31">
+        <v>3</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="31">
+        <v>4</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="31">
+        <v>5</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="37">
-        <v>1</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="37">
-        <v>2</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="37">
-        <v>3</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="E48" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="37">
-        <v>1</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="37">
-        <v>2</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="37">
-        <v>3</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" s="37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="37">
-        <v>4</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" s="37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="37">
-        <v>5</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="37">
-        <v>7</v>
+      <c r="F48" s="31">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/munia.xlsx
+++ b/munia.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Desktop\workspace\MUNIA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="14640" activeTab="5"/>
+    <workbookView minimized="1" xWindow="480" yWindow="60" windowWidth="27795" windowHeight="14640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,12 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="cables" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="158">
   <si>
     <t>Component</t>
   </si>
@@ -423,9 +428,6 @@
     <t>5V</t>
   </si>
   <si>
-    <t>RJ11</t>
-  </si>
-  <si>
     <t>N64 cable</t>
   </si>
   <si>
@@ -471,9 +473,6 @@
     <t>NGC cable 2</t>
   </si>
   <si>
-    <t>Yellow or green</t>
-  </si>
-  <si>
     <t>SNES cable 1</t>
   </si>
   <si>
@@ -493,12 +492,18 @@
   </si>
   <si>
     <t>yellow</t>
+  </si>
+  <si>
+    <t>has NO brown wire</t>
+  </si>
+  <si>
+    <t>has brown wire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$€-413]\ #,##0.00"/>
@@ -758,7 +763,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -780,12 +785,9 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -838,6 +840,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1094,7 +1099,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1127,9 +1132,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1162,6 +1184,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1341,16 +1380,16 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
-    <col min="6" max="6" width="64.85546875" customWidth="1"/>
+    <col min="1" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="48.875" customWidth="1"/>
+    <col min="6" max="6" width="64.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1502,18 +1541,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="6"/>
-    <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="6"/>
+    <col min="4" max="4" width="12.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="37" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1526,15 +1565,15 @@
       <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="39"/>
+      <c r="D1" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="36"/>
       <c r="F1" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1544,10 +1583,10 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="40">
-        <v>1.7</v>
-      </c>
-      <c r="D3" s="40"/>
+      <c r="C3" s="37">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D3" s="37"/>
       <c r="F3">
         <v>14</v>
       </c>
@@ -1562,10 +1601,10 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="37">
         <v>1.7</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="37">
         <v>1.7</v>
       </c>
       <c r="F4">
@@ -1582,10 +1621,10 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="37">
         <v>1.7</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="37">
         <v>1.7</v>
       </c>
       <c r="F5">
@@ -1602,10 +1641,10 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="37">
         <v>1.7</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="37">
         <v>1.7</v>
       </c>
       <c r="F6">
@@ -1622,10 +1661,10 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="37">
         <v>0.2</v>
       </c>
-      <c r="D7" s="40"/>
+      <c r="D7" s="37"/>
       <c r="F7">
         <v>23</v>
       </c>
@@ -1640,10 +1679,10 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="37">
         <v>0.2</v>
       </c>
-      <c r="D8" s="40"/>
+      <c r="D8" s="37"/>
       <c r="F8">
         <v>42</v>
       </c>
@@ -1655,10 +1694,10 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="37">
         <v>0.2</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="37">
         <v>0.2</v>
       </c>
       <c r="F9">
@@ -1672,10 +1711,10 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="37">
         <v>4</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="37">
         <v>4</v>
       </c>
       <c r="F10">
@@ -1689,10 +1728,10 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="40">
-        <v>1</v>
-      </c>
-      <c r="D11" s="40">
+      <c r="C11" s="37">
+        <v>1</v>
+      </c>
+      <c r="D11" s="37">
         <v>1</v>
       </c>
       <c r="F11">
@@ -1701,15 +1740,15 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="37">
         <v>0.8</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="37">
         <v>0.8</v>
       </c>
       <c r="F12">
@@ -1723,10 +1762,10 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="37">
         <v>0.8</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="37">
         <v>0.8</v>
       </c>
       <c r="F13">
@@ -1743,10 +1782,10 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="37">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="37">
         <v>0.55000000000000004</v>
       </c>
       <c r="F14">
@@ -1760,10 +1799,10 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="37">
         <v>2.2599999999999998</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="37">
         <v>2.2599999999999998</v>
       </c>
       <c r="F15">
@@ -1772,30 +1811,30 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16">
         <v>0.5</v>
       </c>
-      <c r="C16" s="40">
-        <v>1</v>
-      </c>
-      <c r="D16" s="40"/>
+      <c r="C16" s="37">
+        <v>1</v>
+      </c>
+      <c r="D16" s="37"/>
       <c r="F16">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="37">
         <v>1.5</v>
       </c>
-      <c r="D17" s="40"/>
+      <c r="D17" s="37"/>
       <c r="F17">
         <v>6</v>
       </c>
@@ -1807,10 +1846,10 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="37">
         <v>1.6</v>
       </c>
-      <c r="D18" s="40"/>
+      <c r="D18" s="37"/>
       <c r="F18">
         <v>12</v>
       </c>
@@ -1825,10 +1864,10 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="37">
         <v>1.65</v>
       </c>
-      <c r="D19" s="40"/>
+      <c r="D19" s="37"/>
       <c r="F19">
         <v>8</v>
       </c>
@@ -1843,10 +1882,10 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="37">
         <v>2.1</v>
       </c>
-      <c r="D20" s="40"/>
+      <c r="D20" s="37"/>
       <c r="F20">
         <v>6</v>
       </c>
@@ -1861,10 +1900,10 @@
       <c r="B21">
         <v>10</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="37">
         <v>1.6</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="37">
         <v>1.6</v>
       </c>
       <c r="F21">
@@ -1878,10 +1917,10 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="37">
         <v>0.44</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="37">
         <v>0.44</v>
       </c>
       <c r="F22">
@@ -1895,10 +1934,10 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="37">
         <v>3</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="37">
         <v>3</v>
       </c>
       <c r="F23">
@@ -1912,11 +1951,11 @@
       <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="38">
         <f>SUM(C3:C23)</f>
-        <v>29.700000000000006</v>
-      </c>
-      <c r="D25" s="41">
+        <v>30.300000000000008</v>
+      </c>
+      <c r="D25" s="38">
         <f>SUM(D3:D23)</f>
         <v>19.750000000000004</v>
       </c>
@@ -3157,19 +3196,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -3419,29 +3458,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>139</v>
+      <c r="A3" s="33" t="s">
+        <v>138</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>104</v>
@@ -3450,20 +3489,20 @@
         <v>103</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>151</v>
-      </c>
       <c r="G3" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="A4" s="28">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -3474,15 +3513,15 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="42" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
+      <c r="A5" s="28">
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -3493,15 +3532,15 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="25" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
+      <c r="A6" s="28">
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -3512,7 +3551,7 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="26" t="s">
         <v>124</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -3520,10 +3559,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+      <c r="A7" s="28">
         <v>4</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>109</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -3531,15 +3570,15 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="27" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
+      <c r="A8" s="28">
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -3551,13 +3590,13 @@
       <c r="D8" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="25" t="s">
         <v>123</v>
       </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="A9" s="28">
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -3566,14 +3605,14 @@
       <c r="C9" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>109</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="A10" s="28">
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -3582,16 +3621,16 @@
       <c r="C10" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="26" t="s">
         <v>124</v>
       </c>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="A11" s="28">
         <v>8</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -3600,100 +3639,92 @@
       <c r="C11" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="30" t="s">
+      <c r="D11" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="26" t="s">
         <v>124</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
     <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="27" t="s">
-        <v>136</v>
+      <c r="A13" s="24" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="37">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="43"/>
+      <c r="A16" s="34">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="37">
+      <c r="A17" s="34">
         <v>2</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
+        <v>3</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
-        <v>3</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>124</v>
+      <c r="C18" s="22" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="37">
+      <c r="A19" s="34">
         <v>4</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="44"/>
+      <c r="C19" s="41"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="22" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="24" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>139</v>
+      <c r="A23" s="33" t="s">
+        <v>138</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>126</v>
@@ -3702,14 +3733,14 @@
         <v>103</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>141</v>
+        <v>147</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
+      <c r="A24" s="28">
         <v>1</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -3718,21 +3749,21 @@
       <c r="C24" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="28">
         <v>4</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+      <c r="A25" s="28">
         <v>2</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -3741,24 +3772,24 @@
       <c r="C25" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="28">
         <v>3</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
+      <c r="A26" s="28">
         <v>3</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="25" t="s">
         <v>123</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -3767,18 +3798,18 @@
       <c r="D26" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="28">
         <v>7</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
+      <c r="A27" s="28">
         <v>4</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -3790,30 +3821,30 @@
       <c r="D27" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="28">
         <v>2</v>
       </c>
       <c r="I27">
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
+      <c r="A28" s="28">
         <v>5</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="27" t="s">
         <v>122</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="28">
         <v>6</v>
       </c>
       <c r="I28">
@@ -3821,107 +3852,107 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="31">
+      <c r="A29" s="28">
         <v>6</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="26" t="s">
         <v>124</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="28">
         <v>1</v>
       </c>
       <c r="I29">
         <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="E30" s="20"/>
+      <c r="A30" s="29"/>
+      <c r="E30" s="19"/>
       <c r="I30">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="27" t="s">
-        <v>137</v>
+      <c r="A32" s="24" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
-        <v>139</v>
+      <c r="A34" s="33" t="s">
+        <v>138</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="34" t="s">
-        <v>140</v>
+      <c r="D34" s="31" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="31">
-        <v>1</v>
-      </c>
-      <c r="B35" s="30" t="s">
+      <c r="A35" s="28">
+        <v>1</v>
+      </c>
+      <c r="B35" s="27" t="s">
         <v>122</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="31">
+      <c r="A36" s="28">
         <v>2</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="26" t="s">
         <v>124</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="31">
+      <c r="A37" s="28">
         <v>3</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="25" t="s">
         <v>123</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
-        <v>139</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>126</v>
@@ -3930,17 +3961,17 @@
         <v>103</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>140</v>
+        <v>150</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="31">
+      <c r="A44" s="28">
         <v>1</v>
       </c>
       <c r="B44" s="11" t="s">
@@ -3955,32 +3986,32 @@
       <c r="E44" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F44" s="31">
+      <c r="F44" s="28">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="31">
+      <c r="A45" s="28">
         <v>2</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="25" t="s">
         <v>123</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F45" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="31">
+      <c r="A46" s="28">
         <v>3</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -3989,59 +4020,59 @@
       <c r="C46" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="26" t="s">
         <v>124</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F46" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="31">
+      <c r="A47" s="28">
         <v>4</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="27" t="s">
         <v>122</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="E47" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="31">
+      <c r="F47" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="31">
+      <c r="A48" s="28">
         <v>5</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="26" t="s">
         <v>124</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="31">
+      <c r="F48" s="28">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/munia.xlsx
+++ b/munia.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Desktop\workspace\MUNIA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="480" yWindow="60" windowWidth="27795" windowHeight="14640" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="14640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="cables" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="159">
   <si>
     <t>Component</t>
   </si>
@@ -431,9 +426,6 @@
     <t>N64 cable</t>
   </si>
   <si>
-    <t>N64 pinout on RJ11</t>
-  </si>
-  <si>
     <t>N64 pinout on header</t>
   </si>
   <si>
@@ -464,9 +456,6 @@
     <t>USB only version</t>
   </si>
   <si>
-    <t>Green or White</t>
-  </si>
-  <si>
     <t>NGC cable 1</t>
   </si>
   <si>
@@ -482,34 +471,43 @@
     <t>Yellow, Black</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>has NO brown wire</t>
-  </si>
-  <si>
-    <t>has brown wire</t>
+    <t>NGC cable 3</t>
+  </si>
+  <si>
+    <t>w/ brown wire</t>
+  </si>
+  <si>
+    <t>w/o brown wire</t>
+  </si>
+  <si>
+    <t>N64 pinout on phone connector</t>
+  </si>
+  <si>
+    <t>RJ11 pin</t>
+  </si>
+  <si>
+    <t>RJ10 pin</t>
+  </si>
+  <si>
+    <t>Green/White</t>
+  </si>
+  <si>
+    <t>w/ blue wire</t>
+  </si>
+  <si>
+    <t>w/ white wire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$€-413]\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$€-413]\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,6 +559,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -673,7 +693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -685,19 +705,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -722,74 +729,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -803,7 +765,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,23 +774,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -859,7 +848,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>410035</xdr:colOff>
+      <xdr:colOff>350914</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>34674</xdr:rowOff>
     </xdr:to>
@@ -907,44 +896,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>403723</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>126726</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>34367</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4763452" y="3265714"/>
-          <a:ext cx="1545234" cy="1302553"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>400099</xdr:colOff>
       <xdr:row>31</xdr:row>
@@ -952,7 +903,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>132694</xdr:colOff>
+      <xdr:colOff>454572</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>174735</xdr:rowOff>
     </xdr:to>
@@ -964,7 +915,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1007,7 +958,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>449630</xdr:colOff>
+      <xdr:colOff>390509</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>69961</xdr:rowOff>
     </xdr:to>
@@ -1019,7 +970,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1099,7 +1050,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1132,26 +1083,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1184,23 +1118,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1385,11 +1302,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="48.875" customWidth="1"/>
-    <col min="6" max="6" width="64.875" customWidth="1"/>
+    <col min="1" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="6" max="6" width="64.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,18 +1458,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="6"/>
-    <col min="4" max="4" width="12.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="37" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1565,15 +1482,15 @@
       <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="36"/>
+      <c r="D1" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="24"/>
       <c r="F1" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1583,10 +1500,10 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="25">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="25"/>
       <c r="F3">
         <v>14</v>
       </c>
@@ -1601,10 +1518,10 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="25">
         <v>1.7</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="25">
         <v>1.7</v>
       </c>
       <c r="F4">
@@ -1621,10 +1538,10 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="25">
         <v>1.7</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="25">
         <v>1.7</v>
       </c>
       <c r="F5">
@@ -1641,10 +1558,10 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="25">
         <v>1.7</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="25">
         <v>1.7</v>
       </c>
       <c r="F6">
@@ -1661,10 +1578,10 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="25">
         <v>0.2</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="25"/>
       <c r="F7">
         <v>23</v>
       </c>
@@ -1679,10 +1596,10 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="25">
         <v>0.2</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="25"/>
       <c r="F8">
         <v>42</v>
       </c>
@@ -1694,10 +1611,10 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="25">
         <v>0.2</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="25">
         <v>0.2</v>
       </c>
       <c r="F9">
@@ -1711,10 +1628,10 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="25">
         <v>4</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="25">
         <v>4</v>
       </c>
       <c r="F10">
@@ -1728,10 +1645,10 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="37">
-        <v>1</v>
-      </c>
-      <c r="D11" s="37">
+      <c r="C11" s="25">
+        <v>1</v>
+      </c>
+      <c r="D11" s="25">
         <v>1</v>
       </c>
       <c r="F11">
@@ -1740,15 +1657,15 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="25">
         <v>0.8</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="25">
         <v>0.8</v>
       </c>
       <c r="F12">
@@ -1762,10 +1679,10 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="25">
         <v>0.8</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="25">
         <v>0.8</v>
       </c>
       <c r="F13">
@@ -1782,10 +1699,10 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="25">
         <v>0.55000000000000004</v>
       </c>
       <c r="F14">
@@ -1799,10 +1716,10 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="25">
         <v>2.2599999999999998</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="25">
         <v>2.2599999999999998</v>
       </c>
       <c r="F15">
@@ -1811,30 +1728,30 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16">
         <v>0.5</v>
       </c>
-      <c r="C16" s="37">
-        <v>1</v>
-      </c>
-      <c r="D16" s="37"/>
+      <c r="C16" s="25">
+        <v>1</v>
+      </c>
+      <c r="D16" s="25"/>
       <c r="F16">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="25">
         <v>1.5</v>
       </c>
-      <c r="D17" s="37"/>
+      <c r="D17" s="25"/>
       <c r="F17">
         <v>6</v>
       </c>
@@ -1846,10 +1763,10 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="25">
         <v>1.6</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="25"/>
       <c r="F18">
         <v>12</v>
       </c>
@@ -1864,10 +1781,10 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="25">
         <v>1.65</v>
       </c>
-      <c r="D19" s="37"/>
+      <c r="D19" s="25"/>
       <c r="F19">
         <v>8</v>
       </c>
@@ -1882,10 +1799,10 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="25">
         <v>2.1</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="25"/>
       <c r="F20">
         <v>6</v>
       </c>
@@ -1900,10 +1817,10 @@
       <c r="B21">
         <v>10</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="25">
         <v>1.6</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="25">
         <v>1.6</v>
       </c>
       <c r="F21">
@@ -1917,10 +1834,10 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="25">
         <v>0.44</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="25">
         <v>0.44</v>
       </c>
       <c r="F22">
@@ -1934,10 +1851,10 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="25">
         <v>3</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="25">
         <v>3</v>
       </c>
       <c r="F23">
@@ -1951,11 +1868,11 @@
       <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="26">
         <f>SUM(C3:C23)</f>
         <v>30.300000000000008</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="26">
         <f>SUM(D3:D23)</f>
         <v>19.750000000000004</v>
       </c>
@@ -3196,19 +3113,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="10" max="10" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -3456,275 +3373,340 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="H3" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="20" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="H4" s="35" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="25" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="H5" s="37" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="26" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="33" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="27" t="s">
-        <v>122</v>
-      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="27" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="H7" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="F8" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="33" t="s">
         <v>117</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="F10" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>151</v>
+      <c r="D11" s="44" t="s">
+        <v>149</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="H11" s="39" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
-        <v>1</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="40"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
-        <v>2</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+      <c r="B18" s="49"/>
+      <c r="C18" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="9">
         <v>3</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="E18" s="9">
         <v>4</v>
       </c>
-      <c r="C19" s="41"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="22" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="24" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9">
+        <v>4</v>
+      </c>
+      <c r="E19" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>138</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>126</v>
@@ -3732,84 +3714,54 @@
       <c r="C23" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
-        <v>1</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="D23" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>1</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>107</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="28">
+      <c r="D24" s="18">
         <v>4</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
         <v>2</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="28">
+      <c r="D25" s="18">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
         <v>3</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="28">
+      <c r="D26" s="18">
         <v>7</v>
       </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
         <v>4</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -3818,141 +3770,114 @@
       <c r="C27" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="28">
+      <c r="D27" s="18">
         <v>2</v>
       </c>
-      <c r="I27">
-        <v>4</v>
-      </c>
-      <c r="J27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
         <v>5</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="17" t="s">
         <v>122</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="28">
+      <c r="D28" s="18">
         <v>6</v>
       </c>
-      <c r="I28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
         <v>6</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="16" t="s">
         <v>124</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="28">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>6</v>
-      </c>
-      <c r="J29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="E30" s="19"/>
-      <c r="I30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="24" t="s">
-        <v>136</v>
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
-        <v>138</v>
+      <c r="A34" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="31" t="s">
-        <v>139</v>
+      <c r="D34" s="21" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="28">
-        <v>1</v>
-      </c>
-      <c r="B35" s="27" t="s">
+      <c r="A35" s="18">
+        <v>1</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>122</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="28">
+      <c r="A36" s="18">
         <v>2</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="16" t="s">
         <v>124</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
+      <c r="A37" s="18">
         <v>3</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
-        <v>138</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>126</v>
@@ -3961,57 +3886,57 @@
         <v>103</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>139</v>
+        <v>148</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="28">
-        <v>1</v>
-      </c>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="18">
+        <v>1</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="18">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="28">
+      <c r="A45" s="18">
         <v>2</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="28">
+      <c r="A46" s="18">
         <v>3</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -4020,57 +3945,65 @@
       <c r="C46" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="16" t="s">
         <v>124</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="28">
+      <c r="A47" s="18">
         <v>4</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="17" t="s">
         <v>122</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="28">
+      <c r="A48" s="18">
         <v>5</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="16" t="s">
         <v>124</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="18">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/munia.xlsx
+++ b/munia.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Desktop\workspace\munia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="14640" activeTab="5"/>
   </bookViews>
@@ -14,7 +19,7 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="cables" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -501,11 +506,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$€-413]\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$€-413]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -733,7 +738,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -741,9 +746,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -774,13 +779,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -803,12 +808,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -817,6 +816,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -854,7 +859,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -909,7 +920,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -964,7 +981,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1050,7 +1073,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1083,9 +1106,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1118,6 +1158,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3376,7 +3433,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3609,10 +3666,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="8" t="s">
         <v>103</v>
       </c>
@@ -3624,8 +3681,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9">
@@ -3633,8 +3690,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9">
         <v>1</v>
@@ -3644,10 +3701,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="9" t="s">
         <v>118</v>
       </c>
@@ -3659,10 +3716,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="9" t="s">
         <v>132</v>
       </c>
@@ -3674,8 +3731,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9">
         <v>4</v>
@@ -3997,12 +4054,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
